--- a/Afstudeerproject/MCA.xlsx
+++ b/Afstudeerproject/MCA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\KdG-IoT\Afstudeerproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\School\Karel de Grote\Graduaat IoT\KdG-IoT\Afstudeerproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A136E1-A34F-4003-A5EA-FCD163EF4C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3A8514-8365-4C41-8001-808206D0DBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7785" yWindow="1950" windowWidth="18810" windowHeight="12870" activeTab="1" xr2:uid="{02DC42A9-CA73-41CC-9275-0ADA25168818}"/>
+    <workbookView xWindow="19170" yWindow="255" windowWidth="19170" windowHeight="20460" activeTab="5" xr2:uid="{02DC42A9-CA73-41CC-9275-0ADA25168818}"/>
   </bookViews>
   <sheets>
     <sheet name="Materiaallijst" sheetId="6" r:id="rId1"/>
@@ -41,32 +41,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
-  <si>
-    <t>Hoeveelheid chocolade</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="31">
   <si>
     <t>Grootte</t>
   </si>
   <si>
-    <t>Krokantheid</t>
-  </si>
-  <si>
     <t>Criteria</t>
   </si>
   <si>
     <t>Wegingsfactor</t>
   </si>
   <si>
-    <t>Chocoprince</t>
-  </si>
-  <si>
-    <t>Twix</t>
-  </si>
-  <si>
-    <t>MilkyWay</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
@@ -89,6 +74,66 @@
   </si>
   <si>
     <t>TOTAAL</t>
+  </si>
+  <si>
+    <t>DFRobot</t>
+  </si>
+  <si>
+    <t>Gotron</t>
+  </si>
+  <si>
+    <t>Kiwi Electronics</t>
+  </si>
+  <si>
+    <t>Prijs</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Ease Of Use</t>
+  </si>
+  <si>
+    <t>Interface (I2C)</t>
+  </si>
+  <si>
+    <t>Metingen: 1-5</t>
+  </si>
+  <si>
+    <t>Werk Spanning</t>
+  </si>
+  <si>
+    <t>Opties</t>
+  </si>
+  <si>
+    <t>1 Kanaal 5V</t>
+  </si>
+  <si>
+    <t>1 Kanaal 3.3V</t>
+  </si>
+  <si>
+    <t>2 Kanaal 3.3V</t>
+  </si>
+  <si>
+    <t>Beschikbaarheid</t>
+  </si>
+  <si>
+    <t>Gravity Hall Sensor</t>
+  </si>
+  <si>
+    <t>Grove Hall Sensor</t>
+  </si>
+  <si>
+    <t>ItsyBitsy ESP32</t>
+  </si>
+  <si>
+    <t>ESP32-S3 Feather 8MB Flash</t>
+  </si>
+  <si>
+    <t>ESP32-S2 Feather 4 MB Flash</t>
+  </si>
+  <si>
+    <t>Features</t>
   </si>
 </sst>
 </file>
@@ -588,7 +633,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -644,22 +689,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -682,12 +711,37 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="40% - Accent5" xfId="3" builtinId="47"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -703,7 +757,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1036,186 +1090,185 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>14</v>
+      <c r="B2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="30"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="31"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="36"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="31"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="31"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="32"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="32"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="32"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="32"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="32"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="31"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="32"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="31"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="32"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="31"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="32"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="32"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="31"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="32"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="32"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="32"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="31"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="32"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="31"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="32"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="32"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="31"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="32"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="31"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="32"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="31"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="32"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="32"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="31"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="32"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="31"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="32"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44">
+      <c r="B29" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38">
         <v>0</v>
       </c>
-      <c r="E29" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1228,10 +1281,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="C1:J11"/>
+  <dimension ref="C1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,87 +1316,87 @@
     <row r="5" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="25"/>
+      <c r="E5" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
         <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
       </c>
       <c r="E7" s="4">
         <v>5</v>
       </c>
       <c r="F7" s="13">
         <f>E7*$D$7</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G7" s="12">
         <v>3</v>
       </c>
       <c r="H7" s="13">
         <f>G7*$D$7</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
       </c>
       <c r="J7" s="3">
         <f>I7*$D$7</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="13">
         <f>E8*$D$8</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G8" s="12">
         <v>3</v>
@@ -1362,17 +1415,17 @@
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="13">
         <f>E9*$D$9</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" s="12">
         <v>4</v>
@@ -1382,27 +1435,27 @@
         <v>4</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="3">
         <f>I9*$D$9</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="20">
         <f>SUM(F7:F9)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="17">
         <f>SUM(H7:H9)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="19">
@@ -1418,6 +1471,11 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1432,6 +1490,165 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05005ECC-622B-4F26-B4D8-4C6CBF27C32D}">
+  <dimension ref="C4:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="C5:H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="10" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="1"/>
+      <c r="E5" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="43"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="13">
+        <f>E7*$D$7</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <f>G7*$D$7</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="13">
+        <f>E8*$D$8</f>
+        <v>15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <f>G8*$D$8</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="13">
+        <f>E9*$D$9</f>
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
+        <f>G9*$D$9</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="13">
+        <f>E10*$D$7</f>
+        <v>2</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <f>G10*$D$7</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="20">
+        <f>SUM(F7:F10)</f>
+        <v>35</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="19">
+        <f>SUM(H7:H10)</f>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAE2C30-27ED-4DE6-A4A5-F940B061B0AB}">
   <dimension ref="C4:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1446,68 +1663,68 @@
     <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
-      <c r="E5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="25"/>
+      <c r="E5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
         <v>5</v>
       </c>
       <c r="F7" s="13">
         <f>E7*$D$7</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G7" s="12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" s="13">
         <f>G7*$D$7</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="3">
         <f>I7*$D$7</f>
@@ -1516,17 +1733,17 @@
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
       </c>
       <c r="E8" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="13">
         <f>E8*$D$8</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" s="12">
         <v>3</v>
@@ -1536,234 +1753,61 @@
         <v>6</v>
       </c>
       <c r="I8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J8" s="3">
         <f>I8*$D$8</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
         <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>5</v>
       </c>
       <c r="F9" s="13">
         <f>E9*$D$9</f>
+        <v>3</v>
+      </c>
+      <c r="G9" s="12">
         <v>5</v>
-      </c>
-      <c r="G9" s="12">
-        <v>4</v>
       </c>
       <c r="H9" s="13">
         <f>G9*$D$9</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" s="3">
         <f>I9*$D$9</f>
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="20">
         <f>SUM(F7:F9)</f>
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="17">
         <f>SUM(H7:H9)</f>
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="19">
         <f>SUM(J7:J9)</f>
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EAE2C30-27ED-4DE6-A4A5-F940B061B0AB}">
-  <dimension ref="C4:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="10" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
-      <c r="E5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5</v>
-      </c>
-      <c r="F7" s="13">
-        <f>E7*$D$7</f>
-        <v>15</v>
-      </c>
-      <c r="G7" s="12">
-        <v>3</v>
-      </c>
-      <c r="H7" s="13">
-        <f>G7*$D$7</f>
-        <v>9</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <f>I7*$D$7</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="13">
-        <f>E8*$D$8</f>
-        <v>4</v>
-      </c>
-      <c r="G8" s="12">
-        <v>3</v>
-      </c>
-      <c r="H8" s="13">
-        <f>G8*$D$8</f>
-        <v>6</v>
-      </c>
-      <c r="I8" s="1">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
-        <f>I8*$D$8</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>5</v>
-      </c>
-      <c r="F9" s="13">
-        <f>E9*$D$9</f>
-        <v>5</v>
-      </c>
-      <c r="G9" s="12">
-        <v>4</v>
-      </c>
-      <c r="H9" s="13">
-        <f>G9*$D$9</f>
-        <v>4</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
-        <f>I9*$D$9</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="20">
-        <f>SUM(F7:F9)</f>
-        <v>24</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="17">
-        <f>SUM(H7:H9)</f>
-        <v>19</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="19">
-        <f>SUM(J7:J9)</f>
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1778,10 +1822,124 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD29855-AAC2-4505-BE4C-E367D81303A4}">
+  <dimension ref="C4:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C5:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="10" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="1"/>
+      <c r="E5" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="13">
+        <f>E7*$D$7</f>
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3">
+        <f>G7*$D$7</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="13">
+        <f>E8*$D$8</f>
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <f>G8*$D$8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="20">
+        <f>SUM(F7:F8)</f>
+        <v>23</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="19">
+        <f>SUM(H7:H8)</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C957B47-DA4E-4D5F-9E7C-D3E0C346F5A3}">
   <dimension ref="C4:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C5:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,68 +1950,68 @@
     <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
-      <c r="E5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="25"/>
+      <c r="E5" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="40"/>
+      <c r="I5" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E7" s="4">
         <v>5</v>
       </c>
       <c r="F7" s="13">
         <f>E7*$D$7</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G7" s="12">
         <v>3</v>
       </c>
       <c r="H7" s="13">
         <f>G7*$D$7</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="3">
         <f>I7*$D$7</f>
@@ -1862,254 +2020,81 @@
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="13">
         <f>E8*$D$8</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G8" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="13">
         <f>G8*$D$8</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I8" s="1">
         <v>4</v>
       </c>
       <c r="J8" s="3">
         <f>I8*$D$8</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4">
         <v>5</v>
       </c>
       <c r="F9" s="13">
         <f>E9*$D$9</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G9" s="12">
         <v>4</v>
       </c>
       <c r="H9" s="13">
         <f>G9*$D$9</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <f>I9*$D$9</f>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="14" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="20">
         <f>SUM(F7:F9)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="17">
         <f>SUM(H7:H9)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="19">
         <f>SUM(J7:J9)</f>
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C957B47-DA4E-4D5F-9E7C-D3E0C346F5A3}">
-  <dimension ref="C4:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="10" width="15.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
-      <c r="E5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4">
-        <v>5</v>
-      </c>
-      <c r="F7" s="13">
-        <f>E7*$D$7</f>
-        <v>15</v>
-      </c>
-      <c r="G7" s="12">
-        <v>3</v>
-      </c>
-      <c r="H7" s="13">
-        <f>G7*$D$7</f>
-        <v>9</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <f>I7*$D$7</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="13">
-        <f>E8*$D$8</f>
-        <v>4</v>
-      </c>
-      <c r="G8" s="12">
-        <v>3</v>
-      </c>
-      <c r="H8" s="13">
-        <f>G8*$D$8</f>
-        <v>6</v>
-      </c>
-      <c r="I8" s="1">
-        <v>4</v>
-      </c>
-      <c r="J8" s="3">
-        <f>I8*$D$8</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>5</v>
-      </c>
-      <c r="F9" s="13">
-        <f>E9*$D$9</f>
-        <v>5</v>
-      </c>
-      <c r="G9" s="12">
-        <v>4</v>
-      </c>
-      <c r="H9" s="13">
-        <f>G9*$D$9</f>
-        <v>4</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
-        <f>I9*$D$9</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="20">
-        <f>SUM(F7:F9)</f>
-        <v>24</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="17">
-        <f>SUM(H7:H9)</f>
-        <v>19</v>
-      </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="19">
-        <f>SUM(J7:J9)</f>
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Afstudeerproject/MCA.xlsx
+++ b/Afstudeerproject/MCA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\School\Karel de Grote\Graduaat IoT\KdG-IoT\Afstudeerproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3A8514-8365-4C41-8001-808206D0DBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5566BA9F-1E15-469B-A4F7-3B85F4881428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19170" yWindow="255" windowWidth="19170" windowHeight="20460" activeTab="5" xr2:uid="{02DC42A9-CA73-41CC-9275-0ADA25168818}"/>
+    <workbookView xWindow="45" yWindow="255" windowWidth="19170" windowHeight="20475" activeTab="1" xr2:uid="{02DC42A9-CA73-41CC-9275-0ADA25168818}"/>
   </bookViews>
   <sheets>
     <sheet name="Materiaallijst" sheetId="6" r:id="rId1"/>
@@ -633,7 +633,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -726,7 +726,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1283,8 +1282,8 @@
   </sheetPr>
   <dimension ref="C1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C5:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,25 +1420,25 @@
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="13">
         <f>E9*$D$9</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9" s="13">
         <f>G9*$D$9</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" s="3">
         <f>I9*$D$9</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1450,17 +1449,17 @@
       <c r="E10" s="16"/>
       <c r="F10" s="20">
         <f>SUM(F7:F9)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" s="18"/>
       <c r="H10" s="17">
         <f>SUM(H7:H9)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="19">
         <f>SUM(J7:J9)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.25">
@@ -1493,7 +1492,7 @@
   <dimension ref="C4:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="C5:H11"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,11 +1503,11 @@
     <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="40"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="45" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="43"/>
@@ -1600,7 +1599,7 @@
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="3">
@@ -1652,7 +1651,7 @@
   <dimension ref="C4:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="C5:J10"/>
+      <selection activeCell="E47" sqref="E46:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,15 +1662,15 @@
     <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="40"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="45" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="40"/>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="43"/>
@@ -1825,7 +1824,7 @@
   <dimension ref="C4:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C5:H9"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,11 +1835,11 @@
     <row r="4" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="40"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="45" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="40"/>
@@ -1938,8 +1937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C957B47-DA4E-4D5F-9E7C-D3E0C346F5A3}">
   <dimension ref="C4:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C5:J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,15 +1949,15 @@
     <row r="4" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="44" t="s">
         <v>27</v>
       </c>
       <c r="F5" s="40"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="45" t="s">
         <v>29</v>
       </c>
       <c r="H5" s="40"/>
-      <c r="I5" s="47" t="s">
+      <c r="I5" s="46" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="43"/>
